--- a/SectionB/QnAofABCfoodcom.xlsx
+++ b/SectionB/QnAofABCfoodcom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aungh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aungh\iti109\SectionB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FDAA7B7-FE42-4D3A-AD36-EC153FC811E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2093D1-D56D-477B-B27B-86E8EDBE7530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1820" windowWidth="16920" windowHeight="10450" xr2:uid="{A8351DB6-4857-4CEA-9F9E-0B0ACE007FA8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{A8351DB6-4857-4CEA-9F9E-0B0ACE007FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="QandA " sheetId="1" r:id="rId1"/>
